--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl21b-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl21b-Ackr4.xlsx
@@ -540,40 +540,40 @@
         <v>1.189399</v>
       </c>
       <c r="I2">
-        <v>0.8220900069740165</v>
+        <v>0.6167434528639912</v>
       </c>
       <c r="J2">
-        <v>0.8220900069740164</v>
+        <v>0.6167434528639911</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1143813333333333</v>
+        <v>0.1148133333333333</v>
       </c>
       <c r="N2">
-        <v>0.343144</v>
+        <v>0.34444</v>
       </c>
       <c r="O2">
-        <v>0.03414257747883775</v>
+        <v>0.03343792635928704</v>
       </c>
       <c r="P2">
-        <v>0.03414257747883775</v>
+        <v>0.03343792635928704</v>
       </c>
       <c r="Q2">
-        <v>0.04534834782844444</v>
+        <v>0.04551962128444444</v>
       </c>
       <c r="R2">
-        <v>0.408135130456</v>
+        <v>0.40967659156</v>
       </c>
       <c r="S2">
-        <v>0.02806827175768862</v>
+        <v>0.02062262215943856</v>
       </c>
       <c r="T2">
-        <v>0.02806827175768862</v>
+        <v>0.02062262215943856</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>1.189399</v>
       </c>
       <c r="I3">
-        <v>0.8220900069740165</v>
+        <v>0.6167434528639912</v>
       </c>
       <c r="J3">
-        <v>0.8220900069740164</v>
+        <v>0.6167434528639911</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>9.527947000000001</v>
       </c>
       <c r="O3">
-        <v>0.9480237703755849</v>
+        <v>0.9249645515654102</v>
       </c>
       <c r="P3">
-        <v>0.9480237703755849</v>
+        <v>0.9249645515654102</v>
       </c>
       <c r="Q3">
         <v>1.259170070428111</v>
@@ -632,10 +632,10 @@
         <v>11.332530633853</v>
       </c>
       <c r="S3">
-        <v>0.779360867999598</v>
+        <v>0.5704658313092443</v>
       </c>
       <c r="T3">
-        <v>0.7793608679995979</v>
+        <v>0.5704658313092443</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,40 +664,40 @@
         <v>1.189399</v>
       </c>
       <c r="I4">
-        <v>0.8220900069740165</v>
+        <v>0.6167434528639912</v>
       </c>
       <c r="J4">
-        <v>0.8220900069740164</v>
+        <v>0.6167434528639911</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.05974466666666667</v>
+        <v>0.1428303333333333</v>
       </c>
       <c r="N4">
-        <v>0.179234</v>
+        <v>0.428491</v>
       </c>
       <c r="O4">
-        <v>0.01783365214557738</v>
+        <v>0.04159752207530271</v>
       </c>
       <c r="P4">
-        <v>0.01783365214557738</v>
+        <v>0.04159752207530271</v>
       </c>
       <c r="Q4">
-        <v>0.02368674892955555</v>
+        <v>0.05662741854544445</v>
       </c>
       <c r="R4">
-        <v>0.213180740366</v>
+        <v>0.5096467669089999</v>
       </c>
       <c r="S4">
-        <v>0.01466086721672989</v>
+        <v>0.02565499939530829</v>
       </c>
       <c r="T4">
-        <v>0.01466086721672989</v>
+        <v>0.02565499939530828</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0858</v>
+        <v>0.246372</v>
       </c>
       <c r="H5">
-        <v>0.2574</v>
+        <v>0.739116</v>
       </c>
       <c r="I5">
-        <v>0.1779099930259836</v>
+        <v>0.3832565471360088</v>
       </c>
       <c r="J5">
-        <v>0.1779099930259836</v>
+        <v>0.3832565471360088</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1143813333333333</v>
+        <v>0.1148133333333333</v>
       </c>
       <c r="N5">
-        <v>0.343144</v>
+        <v>0.34444</v>
       </c>
       <c r="O5">
-        <v>0.03414257747883775</v>
+        <v>0.03343792635928704</v>
       </c>
       <c r="P5">
-        <v>0.03414257747883775</v>
+        <v>0.03343792635928704</v>
       </c>
       <c r="Q5">
-        <v>0.0098139184</v>
+        <v>0.02828679056</v>
       </c>
       <c r="R5">
-        <v>0.08832526560000001</v>
+        <v>0.25458111504</v>
       </c>
       <c r="S5">
-        <v>0.006074305721149128</v>
+        <v>0.01281530419984849</v>
       </c>
       <c r="T5">
-        <v>0.006074305721149128</v>
+        <v>0.01281530419984849</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0858</v>
+        <v>0.246372</v>
       </c>
       <c r="H6">
-        <v>0.2574</v>
+        <v>0.739116</v>
       </c>
       <c r="I6">
-        <v>0.1779099930259836</v>
+        <v>0.3832565471360088</v>
       </c>
       <c r="J6">
-        <v>0.1779099930259836</v>
+        <v>0.3832565471360088</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>9.527947000000001</v>
       </c>
       <c r="O6">
-        <v>0.9480237703755849</v>
+        <v>0.9249645515654102</v>
       </c>
       <c r="P6">
-        <v>0.9480237703755849</v>
+        <v>0.9249645515654102</v>
       </c>
       <c r="Q6">
-        <v>0.2724992842</v>
+        <v>0.7824731194280001</v>
       </c>
       <c r="R6">
-        <v>2.4524935578</v>
+        <v>7.042258074852001</v>
       </c>
       <c r="S6">
-        <v>0.168662902375987</v>
+        <v>0.3544987202561659</v>
       </c>
       <c r="T6">
-        <v>0.168662902375987</v>
+        <v>0.3544987202561659</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.246372</v>
+      </c>
+      <c r="H7">
+        <v>0.739116</v>
+      </c>
+      <c r="I7">
+        <v>0.3832565471360088</v>
+      </c>
+      <c r="J7">
+        <v>0.3832565471360088</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G7">
-        <v>0.0858</v>
-      </c>
-      <c r="H7">
-        <v>0.2574</v>
-      </c>
-      <c r="I7">
-        <v>0.1779099930259836</v>
-      </c>
-      <c r="J7">
-        <v>0.1779099930259836</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M7">
-        <v>0.05974466666666667</v>
+        <v>0.1428303333333333</v>
       </c>
       <c r="N7">
-        <v>0.179234</v>
+        <v>0.428491</v>
       </c>
       <c r="O7">
-        <v>0.01783365214557738</v>
+        <v>0.04159752207530271</v>
       </c>
       <c r="P7">
-        <v>0.01783365214557738</v>
+        <v>0.04159752207530271</v>
       </c>
       <c r="Q7">
-        <v>0.005126092400000001</v>
+        <v>0.035189394884</v>
       </c>
       <c r="R7">
-        <v>0.0461348316</v>
+        <v>0.316704553956</v>
       </c>
       <c r="S7">
-        <v>0.003172784928847489</v>
+        <v>0.01594252267999442</v>
       </c>
       <c r="T7">
-        <v>0.003172784928847489</v>
+        <v>0.01594252267999442</v>
       </c>
     </row>
   </sheetData>
